--- a/FLXK_ORM_EntityGenerator/Resource/数据类型对应分析表.xlsx
+++ b/FLXK_ORM_EntityGenerator/Resource/数据类型对应分析表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="1720" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="9360" yWindow="3560" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
   <si>
     <t>OBJC_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,83 +135,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SQLINTEGER</t>
+  </si>
+  <si>
+    <t>SQLREAL</t>
+  </si>
+  <si>
+    <t>T{CGPoint=dd}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T{CGRect={CGPoint=dd}{CGSize=dd}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T{CGSize=dd}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define SQLITE_INTEGER  1</t>
+  </si>
+  <si>
+    <t>#define SQLITE_FLOAT    2</t>
+  </si>
+  <si>
+    <t>#define SQLITE_BLOB     4</t>
+  </si>
+  <si>
+    <t>#define SQLITE_NULL     5</t>
+  </si>
+  <si>
+    <t>#ifdef SQLITE_TEXT</t>
+  </si>
+  <si>
+    <t>stringForColumnIndex</t>
+  </si>
+  <si>
+    <t>objectForColumnIndex</t>
+  </si>
+  <si>
+    <t>dateForColumnIndex</t>
+  </si>
+  <si>
+    <t>dataForColumnIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longForColumn</t>
+  </si>
+  <si>
+    <t>boolForColumnIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longForColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLTEXT-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLBLOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longForColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intForColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLINTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
     <t>text/double</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SQLINTEGER</t>
-  </si>
-  <si>
-    <t>SQLREAL</t>
-  </si>
-  <si>
-    <t>T{CGPoint=dd}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T{CGRect={CGPoint=dd}{CGSize=dd}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T{CGSize=dd}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#define SQLITE_INTEGER  1</t>
-  </si>
-  <si>
-    <t>#define SQLITE_FLOAT    2</t>
-  </si>
-  <si>
-    <t>#define SQLITE_BLOB     4</t>
-  </si>
-  <si>
-    <t>#define SQLITE_NULL     5</t>
-  </si>
-  <si>
-    <t>#ifdef SQLITE_TEXT</t>
-  </si>
-  <si>
-    <t>stringForColumnIndex</t>
-  </si>
-  <si>
-    <t>objectForColumnIndex</t>
-  </si>
-  <si>
-    <t>dateForColumnIndex</t>
-  </si>
-  <si>
-    <t>dataForColumnIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longForColumn</t>
-  </si>
-  <si>
-    <t>boolForColumnIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longForColumn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intForColumn</t>
-  </si>
-  <si>
-    <t>SQLTEXT-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQLBLOB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>text/INTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>''</t>
+  </si>
+  <si>
+    <t>''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@(obj.id)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -250,8 +307,24 @@
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,7 +333,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +353,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -320,13 +399,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="57">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -349,6 +444,12 @@
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -371,6 +472,12 @@
     <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -700,22 +807,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.1640625" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -726,16 +836,28 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -745,25 +867,31 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14" s="6" customFormat="1">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -771,16 +899,19 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -788,16 +919,19 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -805,28 +939,31 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" t="s">
+      <c r="K6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -834,27 +971,36 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -864,11 +1010,17 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -876,13 +1028,19 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -890,13 +1048,16 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -904,13 +1065,16 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -918,13 +1082,16 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -932,13 +1099,16 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -946,89 +1116,110 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>4</v>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="I19" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" t="s">
         <v>17</v>
       </c>
-      <c r="H20" t="s">
+      <c r="L20" t="s">
         <v>4</v>
       </c>
-      <c r="I20" t="s">
+      <c r="M20" t="s">
         <v>4</v>
       </c>
-      <c r="J20" t="s">
+      <c r="N20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:14">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
         <v>17</v>
       </c>
-      <c r="H21" t="s">
+      <c r="L21" t="s">
         <v>4</v>
       </c>
-      <c r="I21" t="s">
+      <c r="M21" t="s">
         <v>4</v>
       </c>
-      <c r="J21" t="s">
+      <c r="N21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1038,48 +1229,54 @@
       <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
         <v>33</v>
       </c>
-      <c r="G22" t="s">
+      <c r="K22" t="s">
         <v>17</v>
       </c>
-      <c r="H22" t="s">
+      <c r="L22" t="s">
         <v>4</v>
       </c>
-      <c r="I22" t="s">
+      <c r="M22" t="s">
         <v>4</v>
       </c>
-      <c r="J22" t="s">
+      <c r="N22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:14">
       <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="C28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="C28" t="s">
+    <row r="29" spans="1:14">
+      <c r="C29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="C29" t="s">
+    <row r="30" spans="1:14">
+      <c r="C30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="C30" t="s">
+    <row r="31" spans="1:14">
+      <c r="C31" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="C31" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
